--- a/Code/Results/Cases/Case_1_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9858708025184636</v>
+        <v>1.038618551531024</v>
       </c>
       <c r="D2">
-        <v>1.03433544590811</v>
+        <v>1.048378503482646</v>
       </c>
       <c r="E2">
-        <v>1.006441422210212</v>
+        <v>1.046995809523267</v>
       </c>
       <c r="F2">
-        <v>1.023590155134702</v>
+        <v>1.057323428498605</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053945265791208</v>
+        <v>1.038661525066316</v>
       </c>
       <c r="J2">
-        <v>1.008482487553132</v>
+        <v>1.043715010298305</v>
       </c>
       <c r="K2">
-        <v>1.045336293058161</v>
+        <v>1.051138514899363</v>
       </c>
       <c r="L2">
-        <v>1.017811741334673</v>
+        <v>1.049759684168515</v>
       </c>
       <c r="M2">
-        <v>1.034730340480318</v>
+        <v>1.060058712381253</v>
       </c>
       <c r="N2">
-        <v>1.006116271591364</v>
+        <v>1.018381805078532</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9930544964225775</v>
+        <v>1.040076674357336</v>
       </c>
       <c r="D3">
-        <v>1.038424878694812</v>
+        <v>1.049157445373843</v>
       </c>
       <c r="E3">
-        <v>1.012312854525561</v>
+        <v>1.048225019816192</v>
       </c>
       <c r="F3">
-        <v>1.029276467831163</v>
+        <v>1.058483315928977</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055534063739641</v>
+        <v>1.038855912981054</v>
       </c>
       <c r="J3">
-        <v>1.013736310464722</v>
+        <v>1.044815452581159</v>
       </c>
       <c r="K3">
-        <v>1.048588624380462</v>
+        <v>1.051729575819871</v>
       </c>
       <c r="L3">
-        <v>1.022790577315978</v>
+        <v>1.050799566311564</v>
       </c>
       <c r="M3">
-        <v>1.039547968533496</v>
+        <v>1.061031534212488</v>
       </c>
       <c r="N3">
-        <v>1.007934220973629</v>
+        <v>1.018755303345353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9975700868675542</v>
+        <v>1.041019219042549</v>
       </c>
       <c r="D4">
-        <v>1.0409925143523</v>
+        <v>1.049659330631839</v>
       </c>
       <c r="E4">
-        <v>1.016009006784898</v>
+        <v>1.049019522073246</v>
       </c>
       <c r="F4">
-        <v>1.032852380075221</v>
+        <v>1.059232202927402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056514086156504</v>
+        <v>1.038978964061615</v>
       </c>
       <c r="J4">
-        <v>1.017036154976164</v>
+        <v>1.04552616350787</v>
       </c>
       <c r="K4">
-        <v>1.050620142630645</v>
+        <v>1.052109236075215</v>
       </c>
       <c r="L4">
-        <v>1.025917981766366</v>
+        <v>1.051471001559524</v>
       </c>
       <c r="M4">
-        <v>1.042569837282836</v>
+        <v>1.061658801469385</v>
       </c>
       <c r="N4">
-        <v>1.009074951258023</v>
+        <v>1.018996293964422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9994383801624105</v>
+        <v>1.041415241111348</v>
       </c>
       <c r="D5">
-        <v>1.042053893145348</v>
+        <v>1.04986981087878</v>
       </c>
       <c r="E5">
-        <v>1.017539437289922</v>
+        <v>1.049353323950254</v>
       </c>
       <c r="F5">
-        <v>1.034332060854201</v>
+        <v>1.059546645587892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056914939397013</v>
+        <v>1.039030040994464</v>
       </c>
       <c r="J5">
-        <v>1.01840072876672</v>
+        <v>1.045824627307159</v>
       </c>
       <c r="K5">
-        <v>1.051457378278235</v>
+        <v>1.052268176577252</v>
       </c>
       <c r="L5">
-        <v>1.027211275548039</v>
+        <v>1.051752931895971</v>
       </c>
       <c r="M5">
-        <v>1.043818391448957</v>
+        <v>1.061921977050529</v>
       </c>
       <c r="N5">
-        <v>1.009546396805874</v>
+        <v>1.019097443023389</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9997503594237617</v>
+        <v>1.041481722005378</v>
       </c>
       <c r="D6">
-        <v>1.042231064985142</v>
+        <v>1.049905121410827</v>
       </c>
       <c r="E6">
-        <v>1.017795063529523</v>
+        <v>1.049409358726041</v>
       </c>
       <c r="F6">
-        <v>1.034579151699682</v>
+        <v>1.059599419133622</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056981600406007</v>
+        <v>1.039038578701236</v>
       </c>
       <c r="J6">
-        <v>1.01862854969324</v>
+        <v>1.045874722092558</v>
       </c>
       <c r="K6">
-        <v>1.051596985832483</v>
+        <v>1.052294824193153</v>
       </c>
       <c r="L6">
-        <v>1.027427196631073</v>
+        <v>1.051800249334324</v>
       </c>
       <c r="M6">
-        <v>1.044026776534874</v>
+        <v>1.061966134518902</v>
       </c>
       <c r="N6">
-        <v>1.009625089801122</v>
+        <v>1.019114416849842</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9975951670438287</v>
+        <v>1.041024511580841</v>
       </c>
       <c r="D7">
-        <v>1.041006766555915</v>
+        <v>1.049662145091698</v>
       </c>
       <c r="E7">
-        <v>1.016029546974087</v>
+        <v>1.049023983158766</v>
       </c>
       <c r="F7">
-        <v>1.032872243048018</v>
+        <v>1.059236406052646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056519485735919</v>
+        <v>1.03897964912287</v>
       </c>
       <c r="J7">
-        <v>1.017054476087354</v>
+        <v>1.045530152844804</v>
       </c>
       <c r="K7">
-        <v>1.050631395058307</v>
+        <v>1.052111362472737</v>
       </c>
       <c r="L7">
-        <v>1.025935345789012</v>
+        <v>1.0514747700626</v>
       </c>
       <c r="M7">
-        <v>1.042586605055348</v>
+        <v>1.061662320104574</v>
       </c>
       <c r="N7">
-        <v>1.009081282118579</v>
+        <v>1.018997646163605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9883271290469335</v>
+        <v>1.039111532826217</v>
       </c>
       <c r="D8">
-        <v>1.035734205254432</v>
+        <v>1.048642194442462</v>
       </c>
       <c r="E8">
-        <v>1.008447816890104</v>
+        <v>1.047411411052578</v>
       </c>
       <c r="F8">
-        <v>1.025534023983739</v>
+        <v>1.057715758591147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054492374364161</v>
+        <v>1.038727784855415</v>
       </c>
       <c r="J8">
-        <v>1.010279441445393</v>
+        <v>1.044087191518014</v>
       </c>
       <c r="K8">
-        <v>1.046450948512447</v>
+        <v>1.051338845956662</v>
       </c>
       <c r="L8">
-        <v>1.019514560246951</v>
+        <v>1.050111416912977</v>
       </c>
       <c r="M8">
-        <v>1.036378881507247</v>
+        <v>1.060387941822254</v>
       </c>
       <c r="N8">
-        <v>1.006738283277941</v>
+        <v>1.018508173720581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9708938275340484</v>
+        <v>1.03573302413273</v>
       </c>
       <c r="D9">
-        <v>1.025805730997801</v>
+        <v>1.046828477299191</v>
       </c>
       <c r="E9">
-        <v>0.9942372474461003</v>
+        <v>1.044562959859227</v>
       </c>
       <c r="F9">
-        <v>1.011753699339786</v>
+        <v>1.055023519883015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050535069771877</v>
+        <v>1.038263048910421</v>
       </c>
       <c r="J9">
-        <v>0.9975179910531794</v>
+        <v>1.041534005952084</v>
       </c>
       <c r="K9">
-        <v>1.03849355675404</v>
+        <v>1.04995613115067</v>
       </c>
       <c r="L9">
-        <v>1.007424518391294</v>
+        <v>1.047697854874158</v>
       </c>
       <c r="M9">
-        <v>1.024658916436371</v>
+        <v>1.058125264235886</v>
       </c>
       <c r="N9">
-        <v>1.002316823455949</v>
+        <v>1.017640337156731</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.958397169080935</v>
+        <v>1.033475216925498</v>
       </c>
       <c r="D10">
-        <v>1.018701716481988</v>
+        <v>1.045608239752404</v>
       </c>
       <c r="E10">
-        <v>0.9840959503813861</v>
+        <v>1.042659129073583</v>
       </c>
       <c r="F10">
-        <v>1.001907436784433</v>
+        <v>1.053220006089551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047610766942253</v>
+        <v>1.037939151716248</v>
       </c>
       <c r="J10">
-        <v>0.988364488541307</v>
+        <v>1.039824575445379</v>
       </c>
       <c r="K10">
-        <v>1.032741320679246</v>
+        <v>1.049019856844616</v>
       </c>
       <c r="L10">
-        <v>0.9987584199007919</v>
+        <v>1.046081102873132</v>
       </c>
       <c r="M10">
-        <v>1.016242337063048</v>
+        <v>1.056605187145505</v>
       </c>
       <c r="N10">
-        <v>0.9991408891545577</v>
+        <v>1.017058120219122</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9527436916311341</v>
+        <v>1.032496183379533</v>
       </c>
       <c r="D11">
-        <v>1.015496066232423</v>
+        <v>1.045077220819457</v>
       </c>
       <c r="E11">
-        <v>0.9795215057992129</v>
+        <v>1.041833543822333</v>
       </c>
       <c r="F11">
-        <v>0.9974646949069953</v>
+        <v>1.052436963838557</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046269671683183</v>
+        <v>1.037795559672326</v>
       </c>
       <c r="J11">
-        <v>0.9842236684474753</v>
+        <v>1.03908258469198</v>
       </c>
       <c r="K11">
-        <v>1.03013154898121</v>
+        <v>1.04861099660739</v>
       </c>
       <c r="L11">
-        <v>0.9948402331755024</v>
+        <v>1.045379155329802</v>
       </c>
       <c r="M11">
-        <v>1.01243458227411</v>
+        <v>1.055944183612945</v>
       </c>
       <c r="N11">
-        <v>0.9977033621128881</v>
+        <v>1.016805127796378</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9506039007765045</v>
+        <v>1.032132311093363</v>
       </c>
       <c r="D12">
-        <v>1.014284473778349</v>
+        <v>1.044879577724631</v>
       </c>
       <c r="E12">
-        <v>0.9777924051317597</v>
+        <v>1.041526697720705</v>
       </c>
       <c r="F12">
-        <v>0.995785310537237</v>
+        <v>1.052145786619557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045759604583507</v>
+        <v>1.037741720646415</v>
       </c>
       <c r="J12">
-        <v>0.9826565896434232</v>
+        <v>1.038806701572593</v>
       </c>
       <c r="K12">
-        <v>1.029143028986252</v>
+        <v>1.048458608550889</v>
       </c>
       <c r="L12">
-        <v>0.9933578041768381</v>
+        <v>1.045118133634237</v>
       </c>
       <c r="M12">
-        <v>1.010993705268798</v>
+        <v>1.055698233518394</v>
       </c>
       <c r="N12">
-        <v>0.9971592374756728</v>
+        <v>1.016711020030701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9510647558108293</v>
+        <v>1.03221037280624</v>
       </c>
       <c r="D13">
-        <v>1.01454533330577</v>
+        <v>1.044921990915344</v>
       </c>
       <c r="E13">
-        <v>0.978164700552752</v>
+        <v>1.04159252578664</v>
       </c>
       <c r="F13">
-        <v>0.9961469020270682</v>
+        <v>1.052208259681801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045869567100072</v>
+        <v>1.03775329204803</v>
       </c>
       <c r="J13">
-        <v>0.9829940865105605</v>
+        <v>1.038865891948482</v>
       </c>
       <c r="K13">
-        <v>1.029355957525533</v>
+        <v>1.048491319819806</v>
       </c>
       <c r="L13">
-        <v>0.9936770511997814</v>
+        <v>1.045174136734595</v>
       </c>
       <c r="M13">
-        <v>1.011304012062197</v>
+        <v>1.055751009886185</v>
       </c>
       <c r="N13">
-        <v>0.9972764278882873</v>
+        <v>1.016731212606093</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9525676499274193</v>
+        <v>1.032466110022927</v>
       </c>
       <c r="D14">
-        <v>1.01539635009982</v>
+        <v>1.045060891726477</v>
       </c>
       <c r="E14">
-        <v>0.9793792038285147</v>
+        <v>1.04180818366894</v>
       </c>
       <c r="F14">
-        <v>0.9973264849793365</v>
+        <v>1.052412901597292</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046227756846546</v>
+        <v>1.037791119575793</v>
       </c>
       <c r="J14">
-        <v>0.9840947393813161</v>
+        <v>1.039059785739773</v>
       </c>
       <c r="K14">
-        <v>1.030050235729869</v>
+        <v>1.048598410761162</v>
       </c>
       <c r="L14">
-        <v>0.9947182600888057</v>
+        <v>1.045357585076621</v>
       </c>
       <c r="M14">
-        <v>1.012316031922128</v>
+        <v>1.055923861968944</v>
       </c>
       <c r="N14">
-        <v>0.9976585969024405</v>
+        <v>1.016797351584765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.953488243676923</v>
+        <v>1.032623649375819</v>
       </c>
       <c r="D15">
-        <v>1.015917879173814</v>
+        <v>1.045146420190351</v>
       </c>
       <c r="E15">
-        <v>0.9801234533072118</v>
+        <v>1.041941032692871</v>
       </c>
       <c r="F15">
-        <v>0.9980493309653671</v>
+        <v>1.05253894566176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046446847581622</v>
+        <v>1.037814359759704</v>
       </c>
       <c r="J15">
-        <v>0.984768970419756</v>
+        <v>1.039179213554627</v>
       </c>
       <c r="K15">
-        <v>1.030475427900464</v>
+        <v>1.048664324192881</v>
       </c>
       <c r="L15">
-        <v>0.9953561315290761</v>
+        <v>1.045470575482083</v>
       </c>
       <c r="M15">
-        <v>1.012935995270302</v>
+        <v>1.056030305565801</v>
       </c>
       <c r="N15">
-        <v>0.9978926915352554</v>
+        <v>1.01683808403999</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9587669830687331</v>
+        <v>1.033540162307784</v>
       </c>
       <c r="D16">
-        <v>1.018911618821101</v>
+        <v>1.045643425839299</v>
       </c>
       <c r="E16">
-        <v>0.984395481151535</v>
+        <v>1.042713894479683</v>
       </c>
       <c r="F16">
-        <v>1.002198326710632</v>
+        <v>1.053271929284805</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047698137797124</v>
+        <v>1.037948610993931</v>
       </c>
       <c r="J16">
-        <v>0.9886353711364658</v>
+        <v>1.039873780671599</v>
       </c>
       <c r="K16">
-        <v>1.032911911397353</v>
+        <v>1.049046918816463</v>
       </c>
       <c r="L16">
-        <v>0.9990147886717272</v>
+        <v>1.046127648785396</v>
       </c>
       <c r="M16">
-        <v>1.016491441400415</v>
+        <v>1.056648996500089</v>
       </c>
       <c r="N16">
-        <v>0.9992349139443555</v>
+        <v>1.017074891633469</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9620110277186922</v>
+        <v>1.034114690029321</v>
       </c>
       <c r="D17">
-        <v>1.020753881630614</v>
+        <v>1.045954474579301</v>
       </c>
       <c r="E17">
-        <v>0.9870245431171999</v>
+        <v>1.043198362017261</v>
       </c>
       <c r="F17">
-        <v>1.004751405230393</v>
+        <v>1.053731143394766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048462543862904</v>
+        <v>1.038031928120356</v>
       </c>
       <c r="J17">
-        <v>0.9910116208836955</v>
+        <v>1.040308979985812</v>
       </c>
       <c r="K17">
-        <v>1.034407549048406</v>
+        <v>1.049285986514601</v>
       </c>
       <c r="L17">
-        <v>1.001263969448156</v>
+        <v>1.046539306365182</v>
       </c>
       <c r="M17">
-        <v>1.01867663485188</v>
+        <v>1.057036333015341</v>
       </c>
       <c r="N17">
-        <v>1.000059633929982</v>
+        <v>1.017223195734891</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9638800949871568</v>
+        <v>1.034449668877211</v>
       </c>
       <c r="D18">
-        <v>1.021816044292252</v>
+        <v>1.046135648634924</v>
       </c>
       <c r="E18">
-        <v>0.9885405333941187</v>
+        <v>1.043480826919968</v>
       </c>
       <c r="F18">
-        <v>1.006223441647104</v>
+        <v>1.053998791988795</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048901236617383</v>
+        <v>1.038080203123669</v>
       </c>
       <c r="J18">
-        <v>0.9923807148639353</v>
+        <v>1.040562651421332</v>
       </c>
       <c r="K18">
-        <v>1.035268537998743</v>
+        <v>1.049425098132932</v>
       </c>
       <c r="L18">
-        <v>1.00256004806136</v>
+        <v>1.046779237845582</v>
       </c>
       <c r="M18">
-        <v>1.019935608163573</v>
+        <v>1.057261989904697</v>
       </c>
       <c r="N18">
-        <v>1.000534724467107</v>
+        <v>1.017309613376207</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9645135726877586</v>
+        <v>1.034563865585155</v>
       </c>
       <c r="D19">
-        <v>1.022176151476172</v>
+        <v>1.046197381018224</v>
       </c>
       <c r="E19">
-        <v>0.9890545480009683</v>
+        <v>1.043577120476283</v>
       </c>
       <c r="F19">
-        <v>1.006722525542737</v>
+        <v>1.054090018880306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049049622298325</v>
+        <v>1.038096608967281</v>
       </c>
       <c r="J19">
-        <v>0.9928447354353999</v>
+        <v>1.040649117634693</v>
       </c>
       <c r="K19">
-        <v>1.035560216564466</v>
+        <v>1.049472475234275</v>
       </c>
       <c r="L19">
-        <v>1.002999353156046</v>
+        <v>1.046861017633431</v>
       </c>
       <c r="M19">
-        <v>1.020362293325521</v>
+        <v>1.057338887382365</v>
       </c>
       <c r="N19">
-        <v>1.000695730741196</v>
+        <v>1.017339065082242</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9616653881721379</v>
+        <v>1.03405306249705</v>
       </c>
       <c r="D20">
-        <v>1.02055751630004</v>
+        <v>1.045921128420352</v>
       </c>
       <c r="E20">
-        <v>0.9867442960396</v>
+        <v>1.04314639535161</v>
       </c>
       <c r="F20">
-        <v>1.004479271234943</v>
+        <v>1.053681895113839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048381276852897</v>
+        <v>1.038023022338292</v>
       </c>
       <c r="J20">
-        <v>0.9907584392684385</v>
+        <v>1.040262305143725</v>
       </c>
       <c r="K20">
-        <v>1.034248268122133</v>
+        <v>1.049260371216835</v>
       </c>
       <c r="L20">
-        <v>1.001024305716639</v>
+        <v>1.046495158198417</v>
       </c>
       <c r="M20">
-        <v>1.018443812692835</v>
+        <v>1.056994803418575</v>
       </c>
       <c r="N20">
-        <v>0.9999717706634168</v>
+        <v>1.01720729297733</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9521262145357932</v>
+        <v>1.032390807796464</v>
       </c>
       <c r="D21">
-        <v>1.015146335124151</v>
+        <v>1.045019999924234</v>
       </c>
       <c r="E21">
-        <v>0.9790224105893329</v>
+        <v>1.041744682996438</v>
       </c>
       <c r="F21">
-        <v>0.9969799511471588</v>
+        <v>1.052352648529444</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046122613925548</v>
+        <v>1.037779994187689</v>
       </c>
       <c r="J21">
-        <v>0.9837714453413166</v>
+        <v>1.039002696473821</v>
       </c>
       <c r="K21">
-        <v>1.029846327128293</v>
+        <v>1.048566889489663</v>
       </c>
       <c r="L21">
-        <v>0.994412415018313</v>
+        <v>1.045303572072066</v>
       </c>
       <c r="M21">
-        <v>1.012018766059938</v>
+        <v>1.055872973068386</v>
       </c>
       <c r="N21">
-        <v>0.9975463451249886</v>
+        <v>1.016777879046834</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9458960324500602</v>
+        <v>1.03134443114157</v>
       </c>
       <c r="D22">
-        <v>1.011622535097962</v>
+        <v>1.044451115449395</v>
       </c>
       <c r="E22">
-        <v>0.9739926521267236</v>
+        <v>1.04086228668622</v>
       </c>
       <c r="F22">
-        <v>0.9920948584865908</v>
+        <v>1.051515042516546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04463311346127</v>
+        <v>1.037624284949395</v>
       </c>
       <c r="J22">
-        <v>0.9792093003999062</v>
+        <v>1.038209138637362</v>
       </c>
       <c r="K22">
-        <v>1.026967210732316</v>
+        <v>1.048127865656787</v>
       </c>
       <c r="L22">
-        <v>0.9900975456704643</v>
+        <v>1.04455271126727</v>
       </c>
       <c r="M22">
-        <v>1.007824561394823</v>
+        <v>1.055165179297903</v>
       </c>
       <c r="N22">
-        <v>0.9959621109285536</v>
+        <v>1.016507106923383</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9492220754561457</v>
+        <v>1.031899256177548</v>
       </c>
       <c r="D23">
-        <v>1.013502605854553</v>
+        <v>1.044752911167421</v>
       </c>
       <c r="E23">
-        <v>0.976676473398377</v>
+        <v>1.041330165973226</v>
       </c>
       <c r="F23">
-        <v>0.9947014651681242</v>
+        <v>1.051959250455753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045429551521563</v>
+        <v>1.03770710512342</v>
       </c>
       <c r="J23">
-        <v>0.9816446805567524</v>
+        <v>1.038629971191248</v>
       </c>
       <c r="K23">
-        <v>1.028504507143887</v>
+        <v>1.048360885700667</v>
       </c>
       <c r="L23">
-        <v>0.9924006771354552</v>
+        <v>1.044950915857172</v>
       </c>
       <c r="M23">
-        <v>1.01006335870377</v>
+        <v>1.055540627927925</v>
       </c>
       <c r="N23">
-        <v>0.9968078558585205</v>
+        <v>1.016650723064882</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9618216390271859</v>
+        <v>1.034080909738855</v>
       </c>
       <c r="D24">
-        <v>1.020646283550444</v>
+        <v>1.045936196903871</v>
       </c>
       <c r="E24">
-        <v>0.9868709815226854</v>
+        <v>1.043169877212285</v>
       </c>
       <c r="F24">
-        <v>1.00460228964943</v>
+        <v>1.053704148920543</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048418020031082</v>
+        <v>1.038027047474467</v>
       </c>
       <c r="J24">
-        <v>0.9908728932935684</v>
+        <v>1.040283396030528</v>
       </c>
       <c r="K24">
-        <v>1.034320275425977</v>
+        <v>1.049271946695149</v>
       </c>
       <c r="L24">
-        <v>1.001132648202905</v>
+        <v>1.046515107415565</v>
       </c>
       <c r="M24">
-        <v>1.018549063108009</v>
+        <v>1.057013569690259</v>
       </c>
       <c r="N24">
-        <v>1.000011490634106</v>
+        <v>1.017214479013665</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9755441820326443</v>
+        <v>1.036607386761951</v>
       </c>
       <c r="D25">
-        <v>1.028453487618417</v>
+        <v>1.047299318465106</v>
       </c>
       <c r="E25">
-        <v>0.9980210483207707</v>
+        <v>1.045300193046902</v>
       </c>
       <c r="F25">
-        <v>1.015425429751838</v>
+        <v>1.055721046531371</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051606399385609</v>
+        <v>1.038385674070529</v>
       </c>
       <c r="J25">
-        <v>1.000923573571707</v>
+        <v>1.042195335400377</v>
       </c>
       <c r="K25">
-        <v>1.040625592296347</v>
+        <v>1.050316141844271</v>
       </c>
       <c r="L25">
-        <v>1.010650162840729</v>
+        <v>1.048323162213575</v>
       </c>
       <c r="M25">
-        <v>1.027788913745061</v>
+        <v>1.058712258145474</v>
       </c>
       <c r="N25">
-        <v>1.003497604012345</v>
+        <v>1.017865332767142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_160/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_160/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038618551531024</v>
+        <v>0.9858708025184637</v>
       </c>
       <c r="D2">
-        <v>1.048378503482646</v>
+        <v>1.034335445908111</v>
       </c>
       <c r="E2">
-        <v>1.046995809523267</v>
+        <v>1.006441422210212</v>
       </c>
       <c r="F2">
-        <v>1.057323428498605</v>
+        <v>1.023590155134702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038661525066316</v>
+        <v>1.053945265791208</v>
       </c>
       <c r="J2">
-        <v>1.043715010298305</v>
+        <v>1.008482487553132</v>
       </c>
       <c r="K2">
-        <v>1.051138514899363</v>
+        <v>1.045336293058162</v>
       </c>
       <c r="L2">
-        <v>1.049759684168515</v>
+        <v>1.017811741334673</v>
       </c>
       <c r="M2">
-        <v>1.060058712381253</v>
+        <v>1.034730340480319</v>
       </c>
       <c r="N2">
-        <v>1.018381805078532</v>
+        <v>1.006116271591364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040076674357336</v>
+        <v>0.993054496422578</v>
       </c>
       <c r="D3">
-        <v>1.049157445373843</v>
+        <v>1.038424878694812</v>
       </c>
       <c r="E3">
-        <v>1.048225019816192</v>
+        <v>1.012312854525562</v>
       </c>
       <c r="F3">
-        <v>1.058483315928977</v>
+        <v>1.029276467831163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038855912981054</v>
+        <v>1.055534063739641</v>
       </c>
       <c r="J3">
-        <v>1.044815452581159</v>
+        <v>1.013736310464723</v>
       </c>
       <c r="K3">
-        <v>1.051729575819871</v>
+        <v>1.048588624380463</v>
       </c>
       <c r="L3">
-        <v>1.050799566311564</v>
+        <v>1.022790577315979</v>
       </c>
       <c r="M3">
-        <v>1.061031534212488</v>
+        <v>1.039547968533497</v>
       </c>
       <c r="N3">
-        <v>1.018755303345353</v>
+        <v>1.007934220973629</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041019219042549</v>
+        <v>0.9975700868675541</v>
       </c>
       <c r="D4">
-        <v>1.049659330631839</v>
+        <v>1.0409925143523</v>
       </c>
       <c r="E4">
-        <v>1.049019522073246</v>
+        <v>1.016009006784899</v>
       </c>
       <c r="F4">
-        <v>1.059232202927402</v>
+        <v>1.032852380075221</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038978964061615</v>
+        <v>1.056514086156503</v>
       </c>
       <c r="J4">
-        <v>1.04552616350787</v>
+        <v>1.017036154976164</v>
       </c>
       <c r="K4">
-        <v>1.052109236075215</v>
+        <v>1.050620142630645</v>
       </c>
       <c r="L4">
-        <v>1.051471001559524</v>
+        <v>1.025917981766366</v>
       </c>
       <c r="M4">
-        <v>1.061658801469385</v>
+        <v>1.042569837282836</v>
       </c>
       <c r="N4">
-        <v>1.018996293964422</v>
+        <v>1.009074951258023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041415241111348</v>
+        <v>0.9994383801624095</v>
       </c>
       <c r="D5">
-        <v>1.04986981087878</v>
+        <v>1.042053893145348</v>
       </c>
       <c r="E5">
-        <v>1.049353323950254</v>
+        <v>1.017539437289921</v>
       </c>
       <c r="F5">
-        <v>1.059546645587892</v>
+        <v>1.034332060854201</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039030040994464</v>
+        <v>1.056914939397013</v>
       </c>
       <c r="J5">
-        <v>1.045824627307159</v>
+        <v>1.018400728766719</v>
       </c>
       <c r="K5">
-        <v>1.052268176577252</v>
+        <v>1.051457378278235</v>
       </c>
       <c r="L5">
-        <v>1.051752931895971</v>
+        <v>1.027211275548038</v>
       </c>
       <c r="M5">
-        <v>1.061921977050529</v>
+        <v>1.043818391448957</v>
       </c>
       <c r="N5">
-        <v>1.019097443023389</v>
+        <v>1.009546396805874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041481722005378</v>
+        <v>0.9997503594237611</v>
       </c>
       <c r="D6">
-        <v>1.049905121410827</v>
+        <v>1.042231064985142</v>
       </c>
       <c r="E6">
-        <v>1.049409358726041</v>
+        <v>1.017795063529523</v>
       </c>
       <c r="F6">
-        <v>1.059599419133622</v>
+        <v>1.034579151699682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039038578701236</v>
+        <v>1.056981600406007</v>
       </c>
       <c r="J6">
-        <v>1.045874722092558</v>
+        <v>1.018628549693239</v>
       </c>
       <c r="K6">
-        <v>1.052294824193153</v>
+        <v>1.051596985832483</v>
       </c>
       <c r="L6">
-        <v>1.051800249334324</v>
+        <v>1.027427196631073</v>
       </c>
       <c r="M6">
-        <v>1.061966134518902</v>
+        <v>1.044026776534874</v>
       </c>
       <c r="N6">
-        <v>1.019114416849842</v>
+        <v>1.009625089801122</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041024511580841</v>
+        <v>0.9975951670438278</v>
       </c>
       <c r="D7">
-        <v>1.049662145091698</v>
+        <v>1.041006766555914</v>
       </c>
       <c r="E7">
-        <v>1.049023983158766</v>
+        <v>1.016029546974086</v>
       </c>
       <c r="F7">
-        <v>1.059236406052646</v>
+        <v>1.032872243048016</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03897964912287</v>
+        <v>1.056519485735918</v>
       </c>
       <c r="J7">
-        <v>1.045530152844804</v>
+        <v>1.017054476087354</v>
       </c>
       <c r="K7">
-        <v>1.052111362472737</v>
+        <v>1.050631395058306</v>
       </c>
       <c r="L7">
-        <v>1.0514747700626</v>
+        <v>1.025935345789011</v>
       </c>
       <c r="M7">
-        <v>1.061662320104574</v>
+        <v>1.042586605055347</v>
       </c>
       <c r="N7">
-        <v>1.018997646163605</v>
+        <v>1.009081282118579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039111532826217</v>
+        <v>0.9883271290469328</v>
       </c>
       <c r="D8">
-        <v>1.048642194442462</v>
+        <v>1.035734205254431</v>
       </c>
       <c r="E8">
-        <v>1.047411411052578</v>
+        <v>1.008447816890103</v>
       </c>
       <c r="F8">
-        <v>1.057715758591147</v>
+        <v>1.025534023983738</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038727784855415</v>
+        <v>1.05449237436416</v>
       </c>
       <c r="J8">
-        <v>1.044087191518014</v>
+        <v>1.010279441445392</v>
       </c>
       <c r="K8">
-        <v>1.051338845956662</v>
+        <v>1.046450948512446</v>
       </c>
       <c r="L8">
-        <v>1.050111416912977</v>
+        <v>1.01951456024695</v>
       </c>
       <c r="M8">
-        <v>1.060387941822254</v>
+        <v>1.036378881507246</v>
       </c>
       <c r="N8">
-        <v>1.018508173720581</v>
+        <v>1.006738283277941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03573302413273</v>
+        <v>0.9708938275340477</v>
       </c>
       <c r="D9">
-        <v>1.046828477299191</v>
+        <v>1.025805730997802</v>
       </c>
       <c r="E9">
-        <v>1.044562959859227</v>
+        <v>0.9942372474460996</v>
       </c>
       <c r="F9">
-        <v>1.055023519883015</v>
+        <v>1.011753699339786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038263048910421</v>
+        <v>1.050535069771877</v>
       </c>
       <c r="J9">
-        <v>1.041534005952084</v>
+        <v>0.9975179910531786</v>
       </c>
       <c r="K9">
-        <v>1.04995613115067</v>
+        <v>1.03849355675404</v>
       </c>
       <c r="L9">
-        <v>1.047697854874158</v>
+        <v>1.007424518391293</v>
       </c>
       <c r="M9">
-        <v>1.058125264235886</v>
+        <v>1.024658916436371</v>
       </c>
       <c r="N9">
-        <v>1.017640337156731</v>
+        <v>1.002316823455949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033475216925498</v>
+        <v>0.9583971690809349</v>
       </c>
       <c r="D10">
-        <v>1.045608239752404</v>
+        <v>1.018701716481988</v>
       </c>
       <c r="E10">
-        <v>1.042659129073583</v>
+        <v>0.9840959503813859</v>
       </c>
       <c r="F10">
-        <v>1.053220006089551</v>
+        <v>1.001907436784432</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037939151716248</v>
+        <v>1.047610766942253</v>
       </c>
       <c r="J10">
-        <v>1.039824575445379</v>
+        <v>0.9883644885413068</v>
       </c>
       <c r="K10">
-        <v>1.049019856844616</v>
+        <v>1.032741320679246</v>
       </c>
       <c r="L10">
-        <v>1.046081102873132</v>
+        <v>0.9987584199007917</v>
       </c>
       <c r="M10">
-        <v>1.056605187145505</v>
+        <v>1.016242337063048</v>
       </c>
       <c r="N10">
-        <v>1.017058120219122</v>
+        <v>0.9991408891545576</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032496183379533</v>
+        <v>0.9527436916311329</v>
       </c>
       <c r="D11">
-        <v>1.045077220819457</v>
+        <v>1.015496066232422</v>
       </c>
       <c r="E11">
-        <v>1.041833543822333</v>
+        <v>0.9795215057992114</v>
       </c>
       <c r="F11">
-        <v>1.052436963838557</v>
+        <v>0.9974646949069939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037795559672326</v>
+        <v>1.046269671683183</v>
       </c>
       <c r="J11">
-        <v>1.03908258469198</v>
+        <v>0.9842236684474743</v>
       </c>
       <c r="K11">
-        <v>1.04861099660739</v>
+        <v>1.030131548981209</v>
       </c>
       <c r="L11">
-        <v>1.045379155329802</v>
+        <v>0.9948402331755012</v>
       </c>
       <c r="M11">
-        <v>1.055944183612945</v>
+        <v>1.012434582274109</v>
       </c>
       <c r="N11">
-        <v>1.016805127796378</v>
+        <v>0.9977033621128877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032132311093363</v>
+        <v>0.9506039007765033</v>
       </c>
       <c r="D12">
-        <v>1.044879577724631</v>
+        <v>1.014284473778349</v>
       </c>
       <c r="E12">
-        <v>1.041526697720705</v>
+        <v>0.9777924051317585</v>
       </c>
       <c r="F12">
-        <v>1.052145786619557</v>
+        <v>0.9957853105372356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037741720646415</v>
+        <v>1.045759604583506</v>
       </c>
       <c r="J12">
-        <v>1.038806701572593</v>
+        <v>0.9826565896434221</v>
       </c>
       <c r="K12">
-        <v>1.048458608550889</v>
+        <v>1.029143028986252</v>
       </c>
       <c r="L12">
-        <v>1.045118133634237</v>
+        <v>0.9933578041768367</v>
       </c>
       <c r="M12">
-        <v>1.055698233518394</v>
+        <v>1.010993705268797</v>
       </c>
       <c r="N12">
-        <v>1.016711020030701</v>
+        <v>0.9971592374756725</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03221037280624</v>
+        <v>0.9510647558108288</v>
       </c>
       <c r="D13">
-        <v>1.044921990915344</v>
+        <v>1.014545333305769</v>
       </c>
       <c r="E13">
-        <v>1.04159252578664</v>
+        <v>0.9781647005527517</v>
       </c>
       <c r="F13">
-        <v>1.052208259681801</v>
+        <v>0.9961469020270673</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03775329204803</v>
+        <v>1.045869567100072</v>
       </c>
       <c r="J13">
-        <v>1.038865891948482</v>
+        <v>0.9829940865105601</v>
       </c>
       <c r="K13">
-        <v>1.048491319819806</v>
+        <v>1.029355957525532</v>
       </c>
       <c r="L13">
-        <v>1.045174136734595</v>
+        <v>0.993677051199781</v>
       </c>
       <c r="M13">
-        <v>1.055751009886185</v>
+        <v>1.011304012062196</v>
       </c>
       <c r="N13">
-        <v>1.016731212606093</v>
+        <v>0.997276427888287</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032466110022927</v>
+        <v>0.9525676499274204</v>
       </c>
       <c r="D14">
-        <v>1.045060891726477</v>
+        <v>1.01539635009982</v>
       </c>
       <c r="E14">
-        <v>1.04180818366894</v>
+        <v>0.9793792038285155</v>
       </c>
       <c r="F14">
-        <v>1.052412901597292</v>
+        <v>0.9973264849793374</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037791119575793</v>
+        <v>1.046227756846546</v>
       </c>
       <c r="J14">
-        <v>1.039059785739773</v>
+        <v>0.9840947393813169</v>
       </c>
       <c r="K14">
-        <v>1.048598410761162</v>
+        <v>1.030050235729869</v>
       </c>
       <c r="L14">
-        <v>1.045357585076621</v>
+        <v>0.9947182600888063</v>
       </c>
       <c r="M14">
-        <v>1.055923861968944</v>
+        <v>1.012316031922129</v>
       </c>
       <c r="N14">
-        <v>1.016797351584765</v>
+        <v>0.9976585969024406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032623649375819</v>
+        <v>0.9534882436769232</v>
       </c>
       <c r="D15">
-        <v>1.045146420190351</v>
+        <v>1.015917879173814</v>
       </c>
       <c r="E15">
-        <v>1.041941032692871</v>
+        <v>0.980123453307212</v>
       </c>
       <c r="F15">
-        <v>1.05253894566176</v>
+        <v>0.9980493309653667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037814359759704</v>
+        <v>1.046446847581621</v>
       </c>
       <c r="J15">
-        <v>1.039179213554627</v>
+        <v>0.9847689704197559</v>
       </c>
       <c r="K15">
-        <v>1.048664324192881</v>
+        <v>1.030475427900464</v>
       </c>
       <c r="L15">
-        <v>1.045470575482083</v>
+        <v>0.9953561315290761</v>
       </c>
       <c r="M15">
-        <v>1.056030305565801</v>
+        <v>1.012935995270302</v>
       </c>
       <c r="N15">
-        <v>1.01683808403999</v>
+        <v>0.9978926915352552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033540162307784</v>
+        <v>0.9587669830687328</v>
       </c>
       <c r="D16">
-        <v>1.045643425839299</v>
+        <v>1.0189116188211</v>
       </c>
       <c r="E16">
-        <v>1.042713894479683</v>
+        <v>0.9843954811515346</v>
       </c>
       <c r="F16">
-        <v>1.053271929284805</v>
+        <v>1.002198326710632</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037948610993931</v>
+        <v>1.047698137797123</v>
       </c>
       <c r="J16">
-        <v>1.039873780671599</v>
+        <v>0.9886353711364655</v>
       </c>
       <c r="K16">
-        <v>1.049046918816463</v>
+        <v>1.032911911397353</v>
       </c>
       <c r="L16">
-        <v>1.046127648785396</v>
+        <v>0.999014788671727</v>
       </c>
       <c r="M16">
-        <v>1.056648996500089</v>
+        <v>1.016491441400414</v>
       </c>
       <c r="N16">
-        <v>1.017074891633469</v>
+        <v>0.9992349139443554</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034114690029321</v>
+        <v>0.9620110277186931</v>
       </c>
       <c r="D17">
-        <v>1.045954474579301</v>
+        <v>1.020753881630615</v>
       </c>
       <c r="E17">
-        <v>1.043198362017261</v>
+        <v>0.9870245431172007</v>
       </c>
       <c r="F17">
-        <v>1.053731143394766</v>
+        <v>1.004751405230395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038031928120356</v>
+        <v>1.048462543862905</v>
       </c>
       <c r="J17">
-        <v>1.040308979985812</v>
+        <v>0.9910116208836964</v>
       </c>
       <c r="K17">
-        <v>1.049285986514601</v>
+        <v>1.034407549048407</v>
       </c>
       <c r="L17">
-        <v>1.046539306365182</v>
+        <v>1.001263969448156</v>
       </c>
       <c r="M17">
-        <v>1.057036333015341</v>
+        <v>1.018676634851881</v>
       </c>
       <c r="N17">
-        <v>1.017223195734891</v>
+        <v>1.000059633929982</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034449668877211</v>
+        <v>0.9638800949871577</v>
       </c>
       <c r="D18">
-        <v>1.046135648634924</v>
+        <v>1.021816044292252</v>
       </c>
       <c r="E18">
-        <v>1.043480826919968</v>
+        <v>0.9885405333941196</v>
       </c>
       <c r="F18">
-        <v>1.053998791988795</v>
+        <v>1.006223441647104</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038080203123669</v>
+        <v>1.048901236617382</v>
       </c>
       <c r="J18">
-        <v>1.040562651421332</v>
+        <v>0.9923807148639363</v>
       </c>
       <c r="K18">
-        <v>1.049425098132932</v>
+        <v>1.035268537998743</v>
       </c>
       <c r="L18">
-        <v>1.046779237845582</v>
+        <v>1.002560048061361</v>
       </c>
       <c r="M18">
-        <v>1.057261989904697</v>
+        <v>1.019935608163574</v>
       </c>
       <c r="N18">
-        <v>1.017309613376207</v>
+        <v>1.000534724467107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034563865585155</v>
+        <v>0.9645135726877578</v>
       </c>
       <c r="D19">
-        <v>1.046197381018224</v>
+        <v>1.022176151476172</v>
       </c>
       <c r="E19">
-        <v>1.043577120476283</v>
+        <v>0.9890545480009676</v>
       </c>
       <c r="F19">
-        <v>1.054090018880306</v>
+        <v>1.006722525542736</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038096608967281</v>
+        <v>1.049049622298325</v>
       </c>
       <c r="J19">
-        <v>1.040649117634693</v>
+        <v>0.9928447354353993</v>
       </c>
       <c r="K19">
-        <v>1.049472475234275</v>
+        <v>1.035560216564466</v>
       </c>
       <c r="L19">
-        <v>1.046861017633431</v>
+        <v>1.002999353156045</v>
       </c>
       <c r="M19">
-        <v>1.057338887382365</v>
+        <v>1.02036229332552</v>
       </c>
       <c r="N19">
-        <v>1.017339065082242</v>
+        <v>1.000695730741195</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03405306249705</v>
+        <v>0.9616653881721376</v>
       </c>
       <c r="D20">
-        <v>1.045921128420352</v>
+        <v>1.02055751630004</v>
       </c>
       <c r="E20">
-        <v>1.04314639535161</v>
+        <v>0.9867442960396</v>
       </c>
       <c r="F20">
-        <v>1.053681895113839</v>
+        <v>1.004479271234943</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038023022338292</v>
+        <v>1.048381276852897</v>
       </c>
       <c r="J20">
-        <v>1.040262305143725</v>
+        <v>0.9907584392684384</v>
       </c>
       <c r="K20">
-        <v>1.049260371216835</v>
+        <v>1.034248268122133</v>
       </c>
       <c r="L20">
-        <v>1.046495158198417</v>
+        <v>1.001024305716639</v>
       </c>
       <c r="M20">
-        <v>1.056994803418575</v>
+        <v>1.018443812692835</v>
       </c>
       <c r="N20">
-        <v>1.01720729297733</v>
+        <v>0.9999717706634169</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032390807796464</v>
+        <v>0.9521262145357917</v>
       </c>
       <c r="D21">
-        <v>1.045019999924234</v>
+        <v>1.01514633512415</v>
       </c>
       <c r="E21">
-        <v>1.041744682996438</v>
+        <v>0.9790224105893314</v>
       </c>
       <c r="F21">
-        <v>1.052352648529444</v>
+        <v>0.9969799511471577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037779994187689</v>
+        <v>1.046122613925547</v>
       </c>
       <c r="J21">
-        <v>1.039002696473821</v>
+        <v>0.9837714453413152</v>
       </c>
       <c r="K21">
-        <v>1.048566889489663</v>
+        <v>1.029846327128292</v>
       </c>
       <c r="L21">
-        <v>1.045303572072066</v>
+        <v>0.9944124150183116</v>
       </c>
       <c r="M21">
-        <v>1.055872973068386</v>
+        <v>1.012018766059937</v>
       </c>
       <c r="N21">
-        <v>1.016777879046834</v>
+        <v>0.9975463451249881</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03134443114157</v>
+        <v>0.9458960324500598</v>
       </c>
       <c r="D22">
-        <v>1.044451115449395</v>
+        <v>1.011622535097962</v>
       </c>
       <c r="E22">
-        <v>1.04086228668622</v>
+        <v>0.9739926521267233</v>
       </c>
       <c r="F22">
-        <v>1.051515042516546</v>
+        <v>0.9920948584865903</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037624284949395</v>
+        <v>1.04463311346127</v>
       </c>
       <c r="J22">
-        <v>1.038209138637362</v>
+        <v>0.9792093003999059</v>
       </c>
       <c r="K22">
-        <v>1.048127865656787</v>
+        <v>1.026967210732316</v>
       </c>
       <c r="L22">
-        <v>1.04455271126727</v>
+        <v>0.990097545670464</v>
       </c>
       <c r="M22">
-        <v>1.055165179297903</v>
+        <v>1.007824561394823</v>
       </c>
       <c r="N22">
-        <v>1.016507106923383</v>
+        <v>0.9959621109285536</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031899256177548</v>
+        <v>0.9492220754561451</v>
       </c>
       <c r="D23">
-        <v>1.044752911167421</v>
+        <v>1.013502605854553</v>
       </c>
       <c r="E23">
-        <v>1.041330165973226</v>
+        <v>0.9766764733983769</v>
       </c>
       <c r="F23">
-        <v>1.051959250455753</v>
+        <v>0.9947014651681239</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03770710512342</v>
+        <v>1.045429551521563</v>
       </c>
       <c r="J23">
-        <v>1.038629971191248</v>
+        <v>0.981644680556752</v>
       </c>
       <c r="K23">
-        <v>1.048360885700667</v>
+        <v>1.028504507143887</v>
       </c>
       <c r="L23">
-        <v>1.044950915857172</v>
+        <v>0.9924006771354551</v>
       </c>
       <c r="M23">
-        <v>1.055540627927925</v>
+        <v>1.01006335870377</v>
       </c>
       <c r="N23">
-        <v>1.016650723064882</v>
+        <v>0.9968078558585205</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034080909738855</v>
+        <v>0.961821639027185</v>
       </c>
       <c r="D24">
-        <v>1.045936196903871</v>
+        <v>1.020646283550444</v>
       </c>
       <c r="E24">
-        <v>1.043169877212285</v>
+        <v>0.9868709815226844</v>
       </c>
       <c r="F24">
-        <v>1.053704148920543</v>
+        <v>1.004602289649429</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038027047474467</v>
+        <v>1.048418020031082</v>
       </c>
       <c r="J24">
-        <v>1.040283396030528</v>
+        <v>0.9908728932935678</v>
       </c>
       <c r="K24">
-        <v>1.049271946695149</v>
+        <v>1.034320275425976</v>
       </c>
       <c r="L24">
-        <v>1.046515107415565</v>
+        <v>1.001132648202904</v>
       </c>
       <c r="M24">
-        <v>1.057013569690259</v>
+        <v>1.018549063108008</v>
       </c>
       <c r="N24">
-        <v>1.017214479013665</v>
+        <v>1.000011490634106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036607386761951</v>
+        <v>0.9755441820326441</v>
       </c>
       <c r="D25">
-        <v>1.047299318465106</v>
+        <v>1.028453487618417</v>
       </c>
       <c r="E25">
-        <v>1.045300193046902</v>
+        <v>0.9980210483207701</v>
       </c>
       <c r="F25">
-        <v>1.055721046531371</v>
+        <v>1.015425429751837</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038385674070529</v>
+        <v>1.051606399385609</v>
       </c>
       <c r="J25">
-        <v>1.042195335400377</v>
+        <v>1.000923573571707</v>
       </c>
       <c r="K25">
-        <v>1.050316141844271</v>
+        <v>1.040625592296347</v>
       </c>
       <c r="L25">
-        <v>1.048323162213575</v>
+        <v>1.010650162840729</v>
       </c>
       <c r="M25">
-        <v>1.058712258145474</v>
+        <v>1.027788913745061</v>
       </c>
       <c r="N25">
-        <v>1.017865332767142</v>
+        <v>1.003497604012344</v>
       </c>
     </row>
   </sheetData>
